--- a/data/chickpeas.xlsx
+++ b/data/chickpeas.xlsx
@@ -437,7 +437,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>255.4</v>
+        <v>253.42</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>217.55</v>
+        <v>213.88</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>55.57</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>232.52</v>
+        <v>230.71</v>
       </c>
     </row>
     <row r="5">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>252.06</v>
+        <v>257.74</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>252.61</v>
+        <v>242.03</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>246.37</v>
+        <v>236.98</v>
       </c>
     </row>
     <row r="8">
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>244.54</v>
+        <v>242.19</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>230.58</v>
+        <v>241.02</v>
       </c>
     </row>
     <row r="10">
@@ -642,10 +642,10 @@
         <v>55.55</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>239.21</v>
+        <v>227.03</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>247.74</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="12">
@@ -694,10 +694,10 @@
         <v>57.2</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>245.24</v>
+        <v>242.32</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>247.94</v>
+        <v>255.51</v>
       </c>
     </row>
     <row r="14">
@@ -746,10 +746,10 @@
         <v>58.46</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>235.49</v>
+        <v>237.02</v>
       </c>
     </row>
     <row r="15">
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>257.87</v>
+        <v>241.09</v>
       </c>
     </row>
     <row r="16">
@@ -798,10 +798,10 @@
         <v>62.73</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>249.91</v>
+        <v>255.49</v>
       </c>
     </row>
     <row r="17">
@@ -827,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>254.41</v>
+        <v>249.99</v>
       </c>
     </row>
     <row r="18">
@@ -850,10 +850,10 @@
         <v>66.93</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>270</v>
+        <v>278.71</v>
       </c>
     </row>
     <row r="19">
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>233.14</v>
+        <v>228.42</v>
       </c>
     </row>
     <row r="20">
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>220.03</v>
+        <v>224.15</v>
       </c>
     </row>
     <row r="21">
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>238.63</v>
+        <v>233.06</v>
       </c>
     </row>
     <row r="22">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>238.74</v>
+        <v>254.98</v>
       </c>
     </row>
     <row r="23">
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>259.77</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>249.2</v>
+        <v>241.11</v>
       </c>
     </row>
     <row r="25">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>251.64</v>
+        <v>255.28</v>
       </c>
     </row>
     <row r="26">
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>231.9</v>
+        <v>241.61</v>
       </c>
     </row>
     <row r="27">
@@ -1084,10 +1084,10 @@
         <v>56.29</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>244.19</v>
+        <v>253.39</v>
       </c>
     </row>
     <row r="28">
@@ -1113,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>241.31</v>
+        <v>246.07</v>
       </c>
     </row>
     <row r="29">
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>240.44</v>
+        <v>240.08</v>
       </c>
     </row>
     <row r="30">
@@ -1162,10 +1162,10 @@
         <v>60.56</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>257.27</v>
+        <v>258.54</v>
       </c>
     </row>
     <row r="31">
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="n">
-        <v>226.98</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="32">
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="H32" t="n">
-        <v>233.24</v>
+        <v>229.24</v>
       </c>
     </row>
     <row r="33">
@@ -1240,10 +1240,10 @@
         <v>58.54</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>251.77</v>
+        <v>260.99</v>
       </c>
     </row>
     <row r="34">
@@ -1269,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>229.11</v>
+        <v>222.43</v>
       </c>
     </row>
     <row r="35">
@@ -1292,10 +1292,10 @@
         <v>60.54</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>237.85</v>
+        <v>237.77</v>
       </c>
     </row>
     <row r="36">
@@ -1318,10 +1318,10 @@
         <v>63.29</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>253.01</v>
+        <v>255.71</v>
       </c>
     </row>
     <row r="37">
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>226.87</v>
+        <v>227.49</v>
       </c>
     </row>
     <row r="38">
@@ -1373,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>275.73</v>
+        <v>262.71</v>
       </c>
     </row>
     <row r="39">
@@ -1396,10 +1396,10 @@
         <v>66.88</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>263.96</v>
+        <v>270.42</v>
       </c>
     </row>
     <row r="40">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>250.56</v>
+        <v>260.35</v>
       </c>
     </row>
     <row r="41">
@@ -1451,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>256.29</v>
+        <v>250.98</v>
       </c>
     </row>
     <row r="42">
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>250.95</v>
+        <v>243.64</v>
       </c>
     </row>
     <row r="43">
@@ -1503,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="n">
-        <v>263.83</v>
+        <v>251.3</v>
       </c>
     </row>
     <row r="44">
@@ -1526,10 +1526,10 @@
         <v>63.36</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H44" t="n">
-        <v>258.17</v>
+        <v>260.35</v>
       </c>
     </row>
     <row r="45">
@@ -1555,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>265.77</v>
+        <v>269.08</v>
       </c>
     </row>
     <row r="46">
@@ -1581,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>260.74</v>
+        <v>247.11</v>
       </c>
     </row>
     <row r="47">
@@ -1604,10 +1604,10 @@
         <v>52.29</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>218.74</v>
+        <v>215.38</v>
       </c>
     </row>
     <row r="48">
@@ -1630,10 +1630,10 @@
         <v>61.87</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H48" t="n">
-        <v>250.48</v>
+        <v>266.37</v>
       </c>
     </row>
     <row r="49">
@@ -1656,10 +1656,10 @@
         <v>63.76</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
-        <v>266.88</v>
+        <v>260.78</v>
       </c>
     </row>
     <row r="50">
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>281.37</v>
+        <v>279.56</v>
       </c>
     </row>
     <row r="51">
@@ -1711,7 +1711,7 @@
         <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>257.45</v>
+        <v>256.48</v>
       </c>
     </row>
     <row r="52">
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>230.17</v>
+        <v>236.1</v>
       </c>
     </row>
     <row r="53">
@@ -1760,10 +1760,10 @@
         <v>70.76</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>268.91</v>
+        <v>273.34</v>
       </c>
     </row>
     <row r="54">
@@ -1786,10 +1786,10 @@
         <v>62.7</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H54" t="n">
-        <v>258.36</v>
+        <v>257.54</v>
       </c>
     </row>
     <row r="55">
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>242.06</v>
+        <v>232.92</v>
       </c>
     </row>
     <row r="56">
@@ -1838,10 +1838,10 @@
         <v>62.98</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>249.11</v>
+        <v>244.06</v>
       </c>
     </row>
     <row r="57">
@@ -1867,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="n">
-        <v>255.04</v>
+        <v>239.43</v>
       </c>
     </row>
     <row r="58">
@@ -1890,10 +1890,10 @@
         <v>51.71</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H58" t="n">
-        <v>216.13</v>
+        <v>217.38</v>
       </c>
     </row>
     <row r="59">
@@ -1919,7 +1919,7 @@
         <v>10</v>
       </c>
       <c r="H59" t="n">
-        <v>261.09</v>
+        <v>256.09</v>
       </c>
     </row>
     <row r="60">
@@ -1942,10 +1942,10 @@
         <v>54.17</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H60" t="n">
-        <v>226.93</v>
+        <v>218.75</v>
       </c>
     </row>
     <row r="61">
@@ -1971,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="H61" t="n">
-        <v>243.42</v>
+        <v>240.44</v>
       </c>
     </row>
     <row r="62">
@@ -1997,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="H62" t="n">
-        <v>244.41</v>
+        <v>247.32</v>
       </c>
     </row>
     <row r="63">
@@ -2023,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="H63" t="n">
-        <v>224.2</v>
+        <v>244.96</v>
       </c>
     </row>
     <row r="64">
@@ -2046,10 +2046,10 @@
         <v>64.54</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>260.19</v>
+        <v>246.35</v>
       </c>
     </row>
     <row r="65">
@@ -2072,10 +2072,10 @@
         <v>65.91</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H65" t="n">
-        <v>260.66</v>
+        <v>257.7</v>
       </c>
     </row>
     <row r="66">
@@ -2098,10 +2098,10 @@
         <v>50.42</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H66" t="n">
-        <v>211.08</v>
+        <v>208.57</v>
       </c>
     </row>
     <row r="67">
@@ -2124,10 +2124,10 @@
         <v>58.2</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
-        <v>227.59</v>
+        <v>230.36</v>
       </c>
     </row>
     <row r="68">
@@ -2150,10 +2150,10 @@
         <v>60.48</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H68" t="n">
-        <v>248.95</v>
+        <v>246.34</v>
       </c>
     </row>
     <row r="69">
@@ -2179,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="H69" t="n">
-        <v>229.41</v>
+        <v>219.89</v>
       </c>
     </row>
     <row r="70">
@@ -2205,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="H70" t="n">
-        <v>248.98</v>
+        <v>251.68</v>
       </c>
     </row>
     <row r="71">
@@ -2228,10 +2228,10 @@
         <v>60.42</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H71" t="n">
-        <v>242.35</v>
+        <v>243.35</v>
       </c>
     </row>
     <row r="72">
@@ -2257,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="H72" t="n">
-        <v>258.33</v>
+        <v>255.3</v>
       </c>
     </row>
     <row r="73">
@@ -2280,10 +2280,10 @@
         <v>59.82</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H73" t="n">
-        <v>232.02</v>
+        <v>238.01</v>
       </c>
     </row>
     <row r="74">
@@ -2309,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="H74" t="n">
-        <v>234.58</v>
+        <v>243.11</v>
       </c>
     </row>
     <row r="75">
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="H75" t="n">
-        <v>238.66</v>
+        <v>244.98</v>
       </c>
     </row>
     <row r="76">
@@ -2361,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="H76" t="n">
-        <v>233.77</v>
+        <v>235.28</v>
       </c>
     </row>
     <row r="77">
@@ -2387,7 +2387,7 @@
         <v>10</v>
       </c>
       <c r="H77" t="n">
-        <v>249.72</v>
+        <v>253.24</v>
       </c>
     </row>
     <row r="78">
@@ -2413,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="H78" t="n">
-        <v>260.35</v>
+        <v>261.95</v>
       </c>
     </row>
     <row r="79">
@@ -2436,10 +2436,10 @@
         <v>67.45</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H79" t="n">
-        <v>283.64</v>
+        <v>268.62</v>
       </c>
     </row>
     <row r="80">
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="H80" t="n">
-        <v>237.81</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="81">
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="H81" t="n">
-        <v>243.23</v>
+        <v>248.65</v>
       </c>
     </row>
     <row r="82">
@@ -2514,10 +2514,10 @@
         <v>59.73</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H82" t="n">
-        <v>236.14</v>
+        <v>244.15</v>
       </c>
     </row>
     <row r="83">
@@ -2540,10 +2540,10 @@
         <v>54.44</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H83" t="n">
-        <v>224.83</v>
+        <v>237.46</v>
       </c>
     </row>
     <row r="84">
@@ -2569,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="H84" t="n">
-        <v>219.12</v>
+        <v>210.04</v>
       </c>
     </row>
     <row r="85">
@@ -2595,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="H85" t="n">
-        <v>261.87</v>
+        <v>271.68</v>
       </c>
     </row>
     <row r="86">
@@ -2618,10 +2618,10 @@
         <v>61.03</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H86" t="n">
-        <v>248.43</v>
+        <v>241.1</v>
       </c>
     </row>
     <row r="87">
@@ -2644,10 +2644,10 @@
         <v>62.8</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H87" t="n">
-        <v>250.22</v>
+        <v>245.4</v>
       </c>
     </row>
     <row r="88">
@@ -2670,10 +2670,10 @@
         <v>54.58</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H88" t="n">
-        <v>228.14</v>
+        <v>228.15</v>
       </c>
     </row>
     <row r="89">
@@ -2696,10 +2696,10 @@
         <v>67.56</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
-        <v>255.98</v>
+        <v>264.92</v>
       </c>
     </row>
     <row r="90">
@@ -2722,10 +2722,10 @@
         <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H90" t="n">
-        <v>259.47</v>
+        <v>251.48</v>
       </c>
     </row>
     <row r="91">
@@ -2751,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="H91" t="n">
-        <v>247.44</v>
+        <v>240.28</v>
       </c>
     </row>
     <row r="92">
@@ -2777,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="H92" t="n">
-        <v>259.8</v>
+        <v>268.39</v>
       </c>
     </row>
     <row r="93">
@@ -2800,10 +2800,10 @@
         <v>64.55</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H93" t="n">
-        <v>266.68</v>
+        <v>268.58</v>
       </c>
     </row>
     <row r="94">
@@ -2829,7 +2829,7 @@
         <v>10</v>
       </c>
       <c r="H94" t="n">
-        <v>228.58</v>
+        <v>236.07</v>
       </c>
     </row>
     <row r="95">
@@ -2852,10 +2852,10 @@
         <v>63</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H95" t="n">
-        <v>251.75</v>
+        <v>259.82</v>
       </c>
     </row>
     <row r="96">
@@ -2878,10 +2878,10 @@
         <v>65.75</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H96" t="n">
-        <v>274.46</v>
+        <v>274.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/chickpeas.xlsx
+++ b/data/chickpeas.xlsx
@@ -437,7 +437,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>253.42</v>
+        <v>255.4</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>213.88</v>
+        <v>217.55</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>55.57</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>230.71</v>
+        <v>232.52</v>
       </c>
     </row>
     <row r="5">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>257.74</v>
+        <v>252.06</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>242.03</v>
+        <v>252.61</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>236.98</v>
+        <v>246.37</v>
       </c>
     </row>
     <row r="8">
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>242.19</v>
+        <v>244.54</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>241.02</v>
+        <v>230.58</v>
       </c>
     </row>
     <row r="10">
@@ -642,10 +642,10 @@
         <v>55.55</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>227.03</v>
+        <v>239.21</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>246.6</v>
+        <v>247.74</v>
       </c>
     </row>
     <row r="12">
@@ -694,10 +694,10 @@
         <v>57.2</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>242.32</v>
+        <v>245.24</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>255.51</v>
+        <v>247.94</v>
       </c>
     </row>
     <row r="14">
@@ -746,10 +746,10 @@
         <v>58.46</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>237.02</v>
+        <v>235.49</v>
       </c>
     </row>
     <row r="15">
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>241.09</v>
+        <v>257.87</v>
       </c>
     </row>
     <row r="16">
@@ -798,10 +798,10 @@
         <v>62.73</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>255.49</v>
+        <v>249.91</v>
       </c>
     </row>
     <row r="17">
@@ -827,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>249.99</v>
+        <v>254.41</v>
       </c>
     </row>
     <row r="18">
@@ -850,10 +850,10 @@
         <v>66.93</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>278.71</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>228.42</v>
+        <v>233.14</v>
       </c>
     </row>
     <row r="20">
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>224.15</v>
+        <v>220.03</v>
       </c>
     </row>
     <row r="21">
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>233.06</v>
+        <v>238.63</v>
       </c>
     </row>
     <row r="22">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>254.98</v>
+        <v>238.74</v>
       </c>
     </row>
     <row r="23">
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>263</v>
+        <v>259.77</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>241.11</v>
+        <v>249.2</v>
       </c>
     </row>
     <row r="25">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>255.28</v>
+        <v>251.64</v>
       </c>
     </row>
     <row r="26">
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>241.61</v>
+        <v>231.9</v>
       </c>
     </row>
     <row r="27">
@@ -1084,10 +1084,10 @@
         <v>56.29</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>253.39</v>
+        <v>244.19</v>
       </c>
     </row>
     <row r="28">
@@ -1113,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>246.07</v>
+        <v>241.31</v>
       </c>
     </row>
     <row r="29">
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>240.08</v>
+        <v>240.44</v>
       </c>
     </row>
     <row r="30">
@@ -1162,10 +1162,10 @@
         <v>60.56</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
-        <v>258.54</v>
+        <v>257.27</v>
       </c>
     </row>
     <row r="31">
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="n">
-        <v>232.5</v>
+        <v>226.98</v>
       </c>
     </row>
     <row r="32">
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="H32" t="n">
-        <v>229.24</v>
+        <v>233.24</v>
       </c>
     </row>
     <row r="33">
@@ -1240,10 +1240,10 @@
         <v>58.54</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
-        <v>260.99</v>
+        <v>251.77</v>
       </c>
     </row>
     <row r="34">
@@ -1269,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>222.43</v>
+        <v>229.11</v>
       </c>
     </row>
     <row r="35">
@@ -1292,10 +1292,10 @@
         <v>60.54</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
-        <v>237.77</v>
+        <v>237.85</v>
       </c>
     </row>
     <row r="36">
@@ -1318,10 +1318,10 @@
         <v>63.29</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>255.71</v>
+        <v>253.01</v>
       </c>
     </row>
     <row r="37">
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>227.49</v>
+        <v>226.87</v>
       </c>
     </row>
     <row r="38">
@@ -1373,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>262.71</v>
+        <v>275.73</v>
       </c>
     </row>
     <row r="39">
@@ -1396,10 +1396,10 @@
         <v>66.88</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>270.42</v>
+        <v>263.96</v>
       </c>
     </row>
     <row r="40">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>260.35</v>
+        <v>250.56</v>
       </c>
     </row>
     <row r="41">
@@ -1451,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>250.98</v>
+        <v>256.29</v>
       </c>
     </row>
     <row r="42">
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>243.64</v>
+        <v>250.95</v>
       </c>
     </row>
     <row r="43">
@@ -1503,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="n">
-        <v>251.3</v>
+        <v>263.83</v>
       </c>
     </row>
     <row r="44">
@@ -1526,10 +1526,10 @@
         <v>63.36</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
-        <v>260.35</v>
+        <v>258.17</v>
       </c>
     </row>
     <row r="45">
@@ -1555,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>269.08</v>
+        <v>265.77</v>
       </c>
     </row>
     <row r="46">
@@ -1581,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>247.11</v>
+        <v>260.74</v>
       </c>
     </row>
     <row r="47">
@@ -1604,10 +1604,10 @@
         <v>52.29</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H47" t="n">
-        <v>215.38</v>
+        <v>218.74</v>
       </c>
     </row>
     <row r="48">
@@ -1630,10 +1630,10 @@
         <v>61.87</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>266.37</v>
+        <v>250.48</v>
       </c>
     </row>
     <row r="49">
@@ -1656,10 +1656,10 @@
         <v>63.76</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>260.78</v>
+        <v>266.88</v>
       </c>
     </row>
     <row r="50">
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>279.56</v>
+        <v>281.37</v>
       </c>
     </row>
     <row r="51">
@@ -1711,7 +1711,7 @@
         <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>256.48</v>
+        <v>257.45</v>
       </c>
     </row>
     <row r="52">
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>236.1</v>
+        <v>230.17</v>
       </c>
     </row>
     <row r="53">
@@ -1760,10 +1760,10 @@
         <v>70.76</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>273.34</v>
+        <v>268.91</v>
       </c>
     </row>
     <row r="54">
@@ -1786,10 +1786,10 @@
         <v>62.7</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H54" t="n">
-        <v>257.54</v>
+        <v>258.36</v>
       </c>
     </row>
     <row r="55">
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>232.92</v>
+        <v>242.06</v>
       </c>
     </row>
     <row r="56">
@@ -1838,10 +1838,10 @@
         <v>62.98</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>244.06</v>
+        <v>249.11</v>
       </c>
     </row>
     <row r="57">
@@ -1867,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="n">
-        <v>239.43</v>
+        <v>255.04</v>
       </c>
     </row>
     <row r="58">
@@ -1890,10 +1890,10 @@
         <v>51.71</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H58" t="n">
-        <v>217.38</v>
+        <v>216.13</v>
       </c>
     </row>
     <row r="59">
@@ -1919,7 +1919,7 @@
         <v>10</v>
       </c>
       <c r="H59" t="n">
-        <v>256.09</v>
+        <v>261.09</v>
       </c>
     </row>
     <row r="60">
@@ -1942,10 +1942,10 @@
         <v>54.17</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H60" t="n">
-        <v>218.75</v>
+        <v>226.93</v>
       </c>
     </row>
     <row r="61">
@@ -1971,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="H61" t="n">
-        <v>240.44</v>
+        <v>243.42</v>
       </c>
     </row>
     <row r="62">
@@ -1997,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="H62" t="n">
-        <v>247.32</v>
+        <v>244.41</v>
       </c>
     </row>
     <row r="63">
@@ -2023,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="H63" t="n">
-        <v>244.96</v>
+        <v>224.2</v>
       </c>
     </row>
     <row r="64">
@@ -2046,10 +2046,10 @@
         <v>64.54</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>246.35</v>
+        <v>260.19</v>
       </c>
     </row>
     <row r="65">
@@ -2072,10 +2072,10 @@
         <v>65.91</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>257.7</v>
+        <v>260.66</v>
       </c>
     </row>
     <row r="66">
@@ -2098,10 +2098,10 @@
         <v>50.42</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H66" t="n">
-        <v>208.57</v>
+        <v>211.08</v>
       </c>
     </row>
     <row r="67">
@@ -2124,10 +2124,10 @@
         <v>58.2</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H67" t="n">
-        <v>230.36</v>
+        <v>227.59</v>
       </c>
     </row>
     <row r="68">
@@ -2150,10 +2150,10 @@
         <v>60.48</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
-        <v>246.34</v>
+        <v>248.95</v>
       </c>
     </row>
     <row r="69">
@@ -2179,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="H69" t="n">
-        <v>219.89</v>
+        <v>229.41</v>
       </c>
     </row>
     <row r="70">
@@ -2205,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="H70" t="n">
-        <v>251.68</v>
+        <v>248.98</v>
       </c>
     </row>
     <row r="71">
@@ -2228,10 +2228,10 @@
         <v>60.42</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H71" t="n">
-        <v>243.35</v>
+        <v>242.35</v>
       </c>
     </row>
     <row r="72">
@@ -2257,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="H72" t="n">
-        <v>255.3</v>
+        <v>258.33</v>
       </c>
     </row>
     <row r="73">
@@ -2280,10 +2280,10 @@
         <v>59.82</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H73" t="n">
-        <v>238.01</v>
+        <v>232.02</v>
       </c>
     </row>
     <row r="74">
@@ -2309,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="H74" t="n">
-        <v>243.11</v>
+        <v>234.58</v>
       </c>
     </row>
     <row r="75">
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="H75" t="n">
-        <v>244.98</v>
+        <v>238.66</v>
       </c>
     </row>
     <row r="76">
@@ -2361,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="H76" t="n">
-        <v>235.28</v>
+        <v>233.77</v>
       </c>
     </row>
     <row r="77">
@@ -2387,7 +2387,7 @@
         <v>10</v>
       </c>
       <c r="H77" t="n">
-        <v>253.24</v>
+        <v>249.72</v>
       </c>
     </row>
     <row r="78">
@@ -2413,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="H78" t="n">
-        <v>261.95</v>
+        <v>260.35</v>
       </c>
     </row>
     <row r="79">
@@ -2436,10 +2436,10 @@
         <v>67.45</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H79" t="n">
-        <v>268.62</v>
+        <v>283.64</v>
       </c>
     </row>
     <row r="80">
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="H80" t="n">
-        <v>242.72</v>
+        <v>237.81</v>
       </c>
     </row>
     <row r="81">
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="H81" t="n">
-        <v>248.65</v>
+        <v>243.23</v>
       </c>
     </row>
     <row r="82">
@@ -2514,10 +2514,10 @@
         <v>59.73</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H82" t="n">
-        <v>244.15</v>
+        <v>236.14</v>
       </c>
     </row>
     <row r="83">
@@ -2540,10 +2540,10 @@
         <v>54.44</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H83" t="n">
-        <v>237.46</v>
+        <v>224.83</v>
       </c>
     </row>
     <row r="84">
@@ -2569,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="H84" t="n">
-        <v>210.04</v>
+        <v>219.12</v>
       </c>
     </row>
     <row r="85">
@@ -2595,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="H85" t="n">
-        <v>271.68</v>
+        <v>261.87</v>
       </c>
     </row>
     <row r="86">
@@ -2618,10 +2618,10 @@
         <v>61.03</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H86" t="n">
-        <v>241.1</v>
+        <v>248.43</v>
       </c>
     </row>
     <row r="87">
@@ -2644,10 +2644,10 @@
         <v>62.8</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
-        <v>245.4</v>
+        <v>250.22</v>
       </c>
     </row>
     <row r="88">
@@ -2670,10 +2670,10 @@
         <v>54.58</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>228.15</v>
+        <v>228.14</v>
       </c>
     </row>
     <row r="89">
@@ -2696,10 +2696,10 @@
         <v>67.56</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>264.92</v>
+        <v>255.98</v>
       </c>
     </row>
     <row r="90">
@@ -2722,10 +2722,10 @@
         <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
-        <v>251.48</v>
+        <v>259.47</v>
       </c>
     </row>
     <row r="91">
@@ -2751,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="H91" t="n">
-        <v>240.28</v>
+        <v>247.44</v>
       </c>
     </row>
     <row r="92">
@@ -2777,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="H92" t="n">
-        <v>268.39</v>
+        <v>259.8</v>
       </c>
     </row>
     <row r="93">
@@ -2800,10 +2800,10 @@
         <v>64.55</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H93" t="n">
-        <v>268.58</v>
+        <v>266.68</v>
       </c>
     </row>
     <row r="94">
@@ -2829,7 +2829,7 @@
         <v>10</v>
       </c>
       <c r="H94" t="n">
-        <v>236.07</v>
+        <v>228.58</v>
       </c>
     </row>
     <row r="95">
@@ -2852,10 +2852,10 @@
         <v>63</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H95" t="n">
-        <v>259.82</v>
+        <v>251.75</v>
       </c>
     </row>
     <row r="96">
@@ -2878,10 +2878,10 @@
         <v>65.75</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H96" t="n">
-        <v>274.75</v>
+        <v>274.46</v>
       </c>
     </row>
   </sheetData>
